--- a/测试文档/自测/逆流器显示板软件自测报告—V1.2.xlsx
+++ b/测试文档/自测/逆流器显示板软件自测报告—V1.2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98F13CC-2885-4610-B55C-C58A1B6F7FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B93612-93CD-477C-B31C-5BFECB4859F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,6 @@
     <sheet name="表② 新功能测试" sheetId="21" r:id="rId2"/>
     <sheet name="表③ 设置截图" sheetId="22" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表① 更改点验证'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'表② 新功能测试'!$1:$8</definedName>
@@ -36,6 +33,7 @@
     <definedName name="责任人">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="159">
   <si>
     <t xml:space="preserve">                            </t>
   </si>
@@ -696,6 +694,122 @@
     <t>升级至87%重启原因可能：
 ①程序中收到平台下发的结束帧（长度为0）；
 ②看门狗复位；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障界面蓝牙图标正常显示</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机后使主机进入故障；可短剑输出线报输出短路；
+进入故障界面后尝试手机连接和断开蓝牙；
+观察屏幕蓝牙图标显示是否正常；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接成功蓝牙图标点亮；
+断开后蓝牙图标熄灭</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障界面wifi图标正常显示</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用手机热点完成配网（方便关闭热点）；
+使主机进入故障；可短剑输出线报输出短路；
+进入故障界面后尝试打开或关闭手机热点；
+观察屏幕wifi图标显示是否正常；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开热点后wifi图标常亮
+关闭热点后wifi图标快速闪烁</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕刷新bug</t>
+  </si>
+  <si>
+    <t>开机后等待3秒确认时屏幕闪烁；
+在速度熄灭的1秒内按任意键一下；
+查看显示效果是否正常；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应能正常跳转至任意功能界面；
+屏幕显示数据正常；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动前的3秒确认时屏幕闪烁期间有1秒速度隐藏；在此时点击《暂停键》会出现速度一直处于隐藏的bug，按键功能本身没影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕速度显示闪烁时为了达到熄灭效果临时关闭了屏幕刷新；原本是在1秒闪烁完成后重新打开刷屏；此时按键触发导致跳过了1秒后的打开刷屏；
+修改：在《记录控制来源》的接口中打开刷屏，由于不管任何按键触发甚至是远程控制都需要经过《记录控制来源》，故在这里添加能保证所有情况都得到解决；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能正常显示状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成配网并成功连接；
+在闪烁的1秒内用wifi控制暂停和其它任意模式；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成手机配对并成功连接；
+在闪烁的1秒内用手机蓝牙控制暂停和其它任意模式；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行最短的定时模式15min；
+等待结束时3秒屏幕闪烁；
+在闪烁时点击暂停；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常切换至暂停状态；
+屏幕显示正常；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同理，定时模式或训练模式结束时也有3秒闪烁；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复出厂设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复出厂设置时没有恢复参数设置里的数据；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数设置里含有，Modbus节点号，RS485波特率等；
+原来版本还未支持Modbu功能，忽视了该项功能；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入设置菜单；
+任意更改其中参数；
+断电重启确认保存成功；
+关机状态下点击8次模式键进入恢复出厂设置；
+恢复完成后重新进入设置菜单查看参数是否复原；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复出厂后Modbus 节点地址默认21；RS485波特率模式 9600，屏蔽控制方式 0；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽控制方式</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
@@ -1204,7 +1318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1310,22 +1424,85 @@
     <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1587,374 +1764,6 @@
           </stop>
         </gradientFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="179" formatCode="[&gt;=2]&quot;合格&quot;;[=1]&quot;不合格&quot;;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2300,6 +2109,377 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14993743705557422"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="179" formatCode="[&gt;=2]&quot;合格&quot;;[=1]&quot;不合格&quot;;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -3421,47 +3601,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="表① 测试报告"/>
-      <sheetName val="表②串口模拟测试"/>
-      <sheetName val="表③故障对应表"/>
-      <sheetName val="表④转速升降耗时"/>
-      <sheetName val="表⑤各档位下的参数测量"/>
-      <sheetName val="转速功率"/>
-      <sheetName val="表⑥设置菜单介绍"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="待办事项列表" displayName="待办事项列表" ref="B8:J140" headerRowDxfId="55" dataDxfId="54" totalsRowDxfId="53">
-  <autoFilter ref="B8:J140" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="待办事项列表" displayName="待办事项列表" ref="B8:J139" headerRowDxfId="55" dataDxfId="54" totalsRowDxfId="53">
+  <autoFilter ref="B8:J139" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="结果" totalsRowLabel="汇总" dataDxfId="52" totalsRowDxfId="51"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="测试项目" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{8F898473-298A-48B1-8E09-3D7BAD4B6E73}" name="原现象描述" dataDxfId="35" totalsRowDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{47CD10E8-EAF9-4A58-8FD6-6646992E1985}" name="原因分析及修改" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{EC739987-E43B-479C-AAF5-2EA4AD7C61F1}" name="操作" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{7BE2E3AA-4F35-4616-9A62-E65B3DBEF4A1}" name="预期结果" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{57920DAF-0AE4-4D3F-8BC5-77A72FAA5501}" name="实际结果" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{838E3703-D4B2-4723-BD9B-48A013CFCD81}" name="备注" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="日期" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{8F898473-298A-48B1-8E09-3D7BAD4B6E73}" name="原现象描述" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{47CD10E8-EAF9-4A58-8FD6-6646992E1985}" name="原因分析及修改" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{EC739987-E43B-479C-AAF5-2EA4AD7C61F1}" name="操作" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{7BE2E3AA-4F35-4616-9A62-E65B3DBEF4A1}" name="预期结果" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{57920DAF-0AE4-4D3F-8BC5-77A72FAA5501}" name="实际结果" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{838E3703-D4B2-4723-BD9B-48A013CFCD81}" name="备注" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="日期" dataDxfId="36" totalsRowDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="通讯簿" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3476,14 +3628,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3507C208-4203-46CF-9B1D-C090F8BE29DD}" name="待办事项列表2" displayName="待办事项列表2" ref="B8:I142" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="32">
   <autoFilter ref="B8:I142" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{08A2ADD5-F915-4399-868D-52A95AD43BD1}" name="结果" totalsRowLabel="汇总" dataDxfId="30" totalsRowDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{AE35758B-6F3B-4BC9-B006-8A8D6F479F4F}" name="测试项目" dataDxfId="28" totalsRowDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{1349231E-D2FD-4A91-9348-87E8344AF7F0}" name="细分项目" dataDxfId="26" totalsRowDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{BDA3EE32-7690-4C86-8878-C148C33F769B}" name="操作" dataDxfId="24" totalsRowDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{41A4D69B-1DE3-4390-BCD1-4881E6B115A5}" name="预期结果" dataDxfId="22" totalsRowDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{5AF72535-4AE5-453D-A98A-9243A57765A3}" name="实际结果" dataDxfId="20" totalsRowDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{82355E30-AD92-482F-AAAE-D548CFF06B50}" name="备注" dataDxfId="18" totalsRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{8AB35E1F-9D5F-4217-9A53-8142E68651B7}" name="日期" dataDxfId="16" totalsRowDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{08A2ADD5-F915-4399-868D-52A95AD43BD1}" name="结果" totalsRowLabel="汇总" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{AE35758B-6F3B-4BC9-B006-8A8D6F479F4F}" name="测试项目" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{1349231E-D2FD-4A91-9348-87E8344AF7F0}" name="细分项目" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{BDA3EE32-7690-4C86-8878-C148C33F769B}" name="操作" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{41A4D69B-1DE3-4390-BCD1-4881E6B115A5}" name="预期结果" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{5AF72535-4AE5-453D-A98A-9243A57765A3}" name="实际结果" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{82355E30-AD92-482F-AAAE-D548CFF06B50}" name="备注" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{8AB35E1F-9D5F-4217-9A53-8142E68651B7}" name="日期" dataDxfId="17" totalsRowDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="通讯簿" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3725,10 +3877,10 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFB145"/>
+  <dimension ref="A1:XFB144"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" topLeftCell="E20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -3765,148 +3917,150 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:19" ht="26.65" x14ac:dyDescent="0.8">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="47">
         <v>45534</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="26"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:19" ht="26.65" x14ac:dyDescent="0.8">
       <c r="A3" s="1"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="51">
         <f>COUNTIFS(待办事项列表[结果],0)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:19" ht="26.65" x14ac:dyDescent="0.5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="51">
         <f>COUNTIFS(待办事项列表[结果],"=1")</f>
         <v>0</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:19" ht="26.65" x14ac:dyDescent="0.5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="51">
         <f>COUNTIFS(待办事项列表[结果],"=2")</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:19" ht="26.65" x14ac:dyDescent="0.5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="51">
         <f>COUNTIFS(待办事项列表[结果],"=3")</f>
         <v>0</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" ht="26.65" x14ac:dyDescent="0.5">
-      <c r="B7" s="17" t="s">
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:19" ht="38.25" x14ac:dyDescent="0.5">
+      <c r="B7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:19" s="13" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
     </row>
     <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="33" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56">
+        <v>2</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -3915,35 +4069,43 @@
       <c r="E9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="14"/>
+      <c r="H9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.5">
-      <c r="A10" s="37"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="33"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="59">
+        <v>2</v>
+      </c>
+      <c r="C10" s="57"/>
       <c r="D10" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="14"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="41"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:19" ht="75" x14ac:dyDescent="0.5">
-      <c r="A11" s="37"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="59">
+        <v>2</v>
+      </c>
       <c r="C11"/>
       <c r="D11" t="s">
         <v>29</v>
@@ -3951,86 +4113,106 @@
       <c r="E11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="14"/>
+      <c r="H11" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="41"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.5">
-      <c r="B12" s="19"/>
+      <c r="B12" s="59">
+        <v>2</v>
+      </c>
       <c r="C12"/>
       <c r="D12" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="23"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="14"/>
+      <c r="H12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="41"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.5">
-      <c r="B13" s="19"/>
+      <c r="B13" s="59">
+        <v>2</v>
+      </c>
       <c r="C13"/>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="23"/>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="14"/>
+      <c r="H13" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.5">
-      <c r="B14" s="19"/>
+      <c r="B14" s="59">
+        <v>2</v>
+      </c>
       <c r="C14"/>
       <c r="D14" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="14"/>
+      <c r="H14" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="41"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.5">
-      <c r="B15" s="20"/>
+      <c r="B15" s="60">
+        <v>2</v>
+      </c>
       <c r="C15"/>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="23"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="14"/>
+      <c r="H15" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="58"/>
     </row>
     <row r="16" spans="1:19" ht="75" x14ac:dyDescent="0.5">
-      <c r="B16" s="20"/>
+      <c r="B16" s="60">
+        <v>2</v>
+      </c>
       <c r="C16"/>
       <c r="D16" t="s">
         <v>38</v>
@@ -4038,1443 +4220,1522 @@
       <c r="E16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="14"/>
+      <c r="H16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="58"/>
     </row>
     <row r="17" spans="2:10" ht="45" x14ac:dyDescent="0.5">
-      <c r="B17" s="20"/>
+      <c r="B17" s="59">
+        <v>2</v>
+      </c>
       <c r="C17"/>
       <c r="D17" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="23"/>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="14"/>
+      <c r="H17" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="2:10" ht="45" x14ac:dyDescent="0.5">
-      <c r="B18" s="20"/>
+      <c r="B18" s="60">
+        <v>2</v>
+      </c>
       <c r="C18"/>
       <c r="D18" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="23"/>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="14"/>
+      <c r="H18" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="2:10" ht="45" x14ac:dyDescent="0.5">
-      <c r="B19" s="20"/>
+      <c r="B19" s="60">
+        <v>2</v>
+      </c>
       <c r="C19"/>
       <c r="D19" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="14"/>
+      <c r="H19" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="2:10" ht="45" x14ac:dyDescent="0.5">
-      <c r="B20" s="20"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="59">
+        <v>2</v>
+      </c>
+      <c r="C20"/>
       <c r="D20" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="23"/>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="14"/>
+      <c r="H20" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="2:10" ht="30" x14ac:dyDescent="0.5">
-      <c r="B21" s="20"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="60">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="14"/>
+      <c r="H21" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="58"/>
     </row>
     <row r="22" spans="2:10" ht="45" x14ac:dyDescent="0.5">
-      <c r="B22" s="20">
+      <c r="B22" s="60">
         <v>2</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="14"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.5">
-      <c r="B23" s="20"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="60">
+        <v>2</v>
+      </c>
+      <c r="C23"/>
       <c r="D23" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B24" s="20"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B25" s="20"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B26" s="19"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="58"/>
+    </row>
+    <row r="24" spans="2:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="60">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="58"/>
+    </row>
+    <row r="25" spans="2:10" ht="30" x14ac:dyDescent="0.5">
+      <c r="B25" s="60">
+        <v>2</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="58"/>
+    </row>
+    <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.5">
+      <c r="B26" s="60">
+        <v>2</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57" t="s">
+        <v>33</v>
+      </c>
       <c r="E26" s="23"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B27" s="19"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B28" s="19"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="14"/>
+      <c r="F26" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="41"/>
+      <c r="J26" s="58"/>
+    </row>
+    <row r="27" spans="2:10" ht="45" x14ac:dyDescent="0.5">
+      <c r="B27" s="60">
+        <v>2</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="J27" s="58"/>
+    </row>
+    <row r="28" spans="2:10" ht="75" x14ac:dyDescent="0.5">
+      <c r="B28" s="60">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="58"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B29" s="19"/>
+      <c r="B29" s="60">
+        <v>2</v>
+      </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29" s="23"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="14"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="58"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B30" s="19"/>
+      <c r="B30" s="60">
+        <v>2</v>
+      </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30" s="23"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="14"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="58"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B31" s="19"/>
+      <c r="B31" s="60">
+        <v>2</v>
+      </c>
       <c r="C31"/>
       <c r="D31"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="14"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B32" s="20"/>
+      <c r="B32" s="60"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32" s="23"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="14"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B33" s="20"/>
+      <c r="B33" s="60"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33" s="23"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="14"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B34" s="20"/>
+      <c r="B34" s="60"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" s="23"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="14"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="58"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B35" s="20"/>
+      <c r="B35" s="60"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35" s="23"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="14"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="58"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B36" s="20"/>
+      <c r="B36" s="60"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36" s="23"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="14"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="58"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B37" s="20"/>
+      <c r="B37" s="60"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37" s="23"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="14"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="58"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B38" s="20"/>
+      <c r="B38" s="60"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38" s="23"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="14"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="58"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B39" s="20"/>
+      <c r="B39" s="60"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39" s="23"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="14"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="58"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B40" s="20"/>
+      <c r="B40" s="60"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40" s="23"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="14"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="58"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B41" s="20"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="B41" s="60"/>
+      <c r="C41"/>
+      <c r="D41"/>
       <c r="E41" s="23"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="14"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="58"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B42" s="20"/>
+      <c r="B42" s="60"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42" s="23"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="14"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="58"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B43" s="20"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
+      <c r="B43" s="60"/>
+      <c r="C43"/>
+      <c r="D43"/>
       <c r="E43" s="23"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="14"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="58"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B44" s="20"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
+      <c r="B44" s="60"/>
+      <c r="C44"/>
+      <c r="D44"/>
       <c r="E44" s="23"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="14"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B45" s="20"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
+      <c r="B45" s="60"/>
+      <c r="C45"/>
+      <c r="D45"/>
       <c r="E45" s="23"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="14"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="58"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B46" s="20"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
+      <c r="B46" s="60"/>
+      <c r="C46"/>
+      <c r="D46"/>
       <c r="E46" s="23"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="14"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="58"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B47" s="20"/>
+      <c r="B47" s="60"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47" s="23"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="14"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="58"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B48" s="20"/>
+      <c r="B48" s="60"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" s="23"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="14"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="58"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B49" s="20"/>
+      <c r="B49" s="60"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49" s="23"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="14"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="58"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B50" s="20"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
+      <c r="B50" s="60"/>
+      <c r="C50"/>
+      <c r="D50"/>
       <c r="E50" s="23"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="14"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="58"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B51" s="20"/>
+      <c r="B51" s="60"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51" s="23"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="14"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="58"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B52" s="20"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
+      <c r="B52" s="60"/>
+      <c r="C52"/>
+      <c r="D52"/>
       <c r="E52" s="23"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="14"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="58"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B53" s="20"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
+      <c r="B53" s="60"/>
+      <c r="C53"/>
+      <c r="D53"/>
       <c r="E53" s="23"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="14"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="58"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B54" s="20"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
+      <c r="B54" s="60"/>
+      <c r="C54"/>
+      <c r="D54"/>
       <c r="E54" s="23"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="14"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="58"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B55" s="20"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
+      <c r="B55" s="60"/>
+      <c r="C55"/>
+      <c r="D55"/>
       <c r="E55" s="23"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="14"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="58"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B56" s="20"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
+      <c r="B56" s="60"/>
+      <c r="C56"/>
+      <c r="D56"/>
       <c r="E56" s="23"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="14"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="58"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B57" s="20"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
+      <c r="B57" s="60"/>
+      <c r="C57"/>
+      <c r="D57"/>
       <c r="E57" s="23"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="14"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="58"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B58" s="20"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
+      <c r="B58" s="60"/>
+      <c r="C58"/>
+      <c r="D58"/>
       <c r="E58" s="23"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="14"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="58"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B59" s="20"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
+      <c r="B59" s="60"/>
+      <c r="C59"/>
+      <c r="D59"/>
       <c r="E59" s="23"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="14"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="58"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B60" s="20"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
+      <c r="B60" s="60"/>
+      <c r="C60"/>
+      <c r="D60"/>
       <c r="E60" s="23"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="14"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="58"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B61" s="20"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="23"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="14"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="58"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B62" s="29"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="23"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="14"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="58"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B63" s="29"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="23"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="14"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="58"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B64" s="29"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="23"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="14"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="58"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B65" s="29"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="23"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="14"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="58"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B66" s="29"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="14"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="58"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B67" s="29"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="14"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="58"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B68" s="29"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="14"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="58"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B69" s="29"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="14"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="58"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B70" s="29"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="14"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="58"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B71" s="29"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="14"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="58"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B72" s="29"/>
+      <c r="B72" s="61"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="14"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="58"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B73" s="29"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="14"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="58"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B74" s="29"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="14"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="58"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B75" s="29"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="14"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="58"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B76" s="29"/>
+      <c r="B76" s="61"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="14"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="58"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B77" s="29"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="14"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="58"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B78" s="29"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="14"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="58"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B79" s="29"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="14"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="58"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B80" s="29"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="14"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="58"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B81" s="29"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="14"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="58"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B82" s="29"/>
+      <c r="B82" s="61"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="14"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="58"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B83" s="29"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="14"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="58"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B84" s="29"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="14"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="58"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B85" s="29"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="14"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="62"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B86" s="29"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="28"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="62"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B87" s="29"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="28"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="62"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B88" s="29"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="28"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="62"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B89" s="29"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="28"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="62"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B90" s="29"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="28"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="62"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B91" s="29"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="28"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="62"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B92" s="29"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="28"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="62"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B93" s="29"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="28"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="62"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B94" s="29"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="28"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="62"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B95" s="29"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="28"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="62"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B96" s="29"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="28"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="62"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B97" s="29"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="28"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="62"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B98" s="29"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="28"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="62"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B99" s="29"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="28"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="62"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B100" s="29"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="28"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="62"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B101" s="29"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="28"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="62"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B102" s="29"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="28"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="62"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B103" s="29"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="28"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="62"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B104" s="29"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="28"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="62"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B105" s="29"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="28"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="62"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B106" s="29"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="28"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="62"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B107" s="29"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="28"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="62"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B108" s="29"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="28"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="62"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B109" s="29"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="28"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="62"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B110" s="29"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="28"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="62"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B111" s="29"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="28"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="62"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B112" s="29"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="62"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B113" s="29"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="28"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="62"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B114" s="29"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="28"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42"/>
+      <c r="G114" s="42"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="62"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B115" s="29"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="28"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="62"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B116" s="29"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="28"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="62"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B117" s="29"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="28"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="62"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B118" s="29"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="28"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="62"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B119" s="29"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="28"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="42"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="62"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B120" s="29"/>
-      <c r="C120" s="35"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="28"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="42"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="62"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B121" s="29"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="28"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="42"/>
+      <c r="F121" s="42"/>
+      <c r="G121" s="42"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="62"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B122" s="29"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="28"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="62"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B123" s="29"/>
-      <c r="C123" s="35"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="28"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="42"/>
+      <c r="F123" s="42"/>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="62"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B124" s="29"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="28"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="62"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B125" s="29"/>
-      <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="28"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="42"/>
+      <c r="F125" s="42"/>
+      <c r="G125" s="42"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="62"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B126" s="29"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="28"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="42"/>
+      <c r="H126" s="42"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="62"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B127" s="29"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-      <c r="J127" s="28"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
+      <c r="G127" s="42"/>
+      <c r="H127" s="42"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="62"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B128" s="29"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="28"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="42"/>
+      <c r="F128" s="42"/>
+      <c r="G128" s="42"/>
+      <c r="H128" s="42"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="62"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B129" s="29"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="28"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="42"/>
+      <c r="F129" s="42"/>
+      <c r="G129" s="42"/>
+      <c r="H129" s="42"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="62"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B130" s="29"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="28"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="42"/>
+      <c r="F130" s="42"/>
+      <c r="G130" s="42"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="62"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B131" s="29"/>
-      <c r="C131" s="35"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="28"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="42"/>
+      <c r="F131" s="42"/>
+      <c r="G131" s="42"/>
+      <c r="H131" s="42"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="62"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B132" s="29"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="28"/>
+      <c r="B132" s="61"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="42"/>
+      <c r="F132" s="42"/>
+      <c r="G132" s="42"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="62"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B133" s="29"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="28"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="62"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B134" s="29"/>
-      <c r="C134" s="35"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="28"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="42"/>
+      <c r="F134" s="42"/>
+      <c r="G134" s="42"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="62"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B135" s="29"/>
-      <c r="C135" s="35"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="28"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="42"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="62"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B136" s="29"/>
-      <c r="C136" s="35"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="28"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="42"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="62"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B137" s="29"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="28"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="42"/>
+      <c r="F137" s="42"/>
+      <c r="G137" s="42"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="62"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B138" s="29"/>
-      <c r="C138" s="35"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="28"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="42"/>
+      <c r="F138" s="42"/>
+      <c r="G138" s="42"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="62"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B139" s="29"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
-      <c r="J139" s="28"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B140" s="29"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="28"/>
-    </row>
-    <row r="145" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
+      <c r="B139" s="61"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="42"/>
+      <c r="F139" s="42"/>
+      <c r="G139" s="42"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="42"/>
+      <c r="J139" s="62"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B144" s="6"/>
+      <c r="E144" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:A11"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C24:J140 C23:D23 F23:J23 C9:J22">
+  <conditionalFormatting sqref="C9:J139">
     <cfRule type="expression" dxfId="15" priority="1">
       <formula>$B9=3</formula>
     </cfRule>
@@ -5531,7 +5792,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B26:B85</xm:sqref>
+          <xm:sqref>B32:B84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="106" id="{260BDC38-39BB-40B7-9DE5-E78A1F54B419}">
@@ -5550,7 +5811,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B146:B224 B86:B144 B9:B25</xm:sqref>
+          <xm:sqref>B145:B223 B85:B143 B9:B31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5566,8 +5827,8 @@
   </sheetPr>
   <dimension ref="A1:XFB147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -5669,7 +5930,7 @@
       </c>
       <c r="C5" s="31">
         <f>COUNTIFS(待办事项列表2[结果],"=2")</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -5738,14 +5999,14 @@
       <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:18" ht="75" x14ac:dyDescent="0.5">
-      <c r="A9" s="37"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="36">
         <v>2</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="18" t="s">
@@ -5761,33 +6022,33 @@
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.5">
-      <c r="A10" s="37"/>
-      <c r="B10" s="40">
+      <c r="A10" s="63"/>
+      <c r="B10" s="38">
         <v>2</v>
       </c>
       <c r="C10" s="33"/>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="22" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:18" ht="60" x14ac:dyDescent="0.5">
-      <c r="A11" s="37"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="19">
         <v>2</v>
       </c>
       <c r="C11" s="33"/>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="37" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -5807,7 +6068,7 @@
         <v>2</v>
       </c>
       <c r="C12"/>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="37" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -5823,11 +6084,11 @@
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.5">
-      <c r="B13" s="40">
+      <c r="B13" s="38">
         <v>2</v>
       </c>
       <c r="C13"/>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="37" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="18" t="s">
@@ -5847,7 +6108,7 @@
         <v>2</v>
       </c>
       <c r="C14"/>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="18" t="s">
@@ -5867,7 +6128,7 @@
         <v>2</v>
       </c>
       <c r="C15"/>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E15" s="18" t="s">
@@ -5883,11 +6144,11 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.5">
-      <c r="B16" s="40">
+      <c r="B16" s="38">
         <v>2</v>
       </c>
       <c r="C16"/>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="37" t="s">
         <v>77</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -5907,7 +6168,7 @@
         <v>2</v>
       </c>
       <c r="C17"/>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="37" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="18" t="s">
@@ -5927,7 +6188,7 @@
         <v>2</v>
       </c>
       <c r="C18"/>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="37" t="s">
         <v>83</v>
       </c>
       <c r="E18" s="18" t="s">
@@ -5943,11 +6204,11 @@
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" ht="60" x14ac:dyDescent="0.5">
-      <c r="B19" s="40">
+      <c r="B19" s="38">
         <v>2</v>
       </c>
       <c r="C19"/>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E19" s="18" t="s">
@@ -5967,7 +6228,7 @@
         <v>2</v>
       </c>
       <c r="C20"/>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="37" t="s">
         <v>99</v>
       </c>
       <c r="E20" s="18" t="s">
@@ -5987,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="34"/>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="37" t="s">
         <v>100</v>
       </c>
       <c r="E21" s="18" t="s">
@@ -6005,11 +6266,11 @@
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="2:9" ht="45" x14ac:dyDescent="0.5">
-      <c r="B22" s="40">
+      <c r="B22" s="38">
         <v>2</v>
       </c>
       <c r="C22" s="34"/>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="37" t="s">
         <v>101</v>
       </c>
       <c r="E22" s="18" t="s">
@@ -6067,7 +6328,7 @@
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.5">
-      <c r="B25" s="40">
+      <c r="B25" s="38">
         <v>2</v>
       </c>
       <c r="C25" s="34"/>
@@ -6127,11 +6388,11 @@
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:9" ht="60" x14ac:dyDescent="0.5">
-      <c r="B28" s="40">
+      <c r="B28" s="38">
         <v>2</v>
       </c>
       <c r="C28" s="33"/>
-      <c r="D28" s="39"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="18" t="s">
         <v>119</v>
       </c>
@@ -6149,7 +6410,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="33"/>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="37" t="s">
         <v>83</v>
       </c>
       <c r="E29" s="18" t="s">
@@ -6169,7 +6430,7 @@
         <v>2</v>
       </c>
       <c r="C30"/>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="37" t="s">
         <v>123</v>
       </c>
       <c r="E30" s="18" t="s">
@@ -6185,11 +6446,11 @@
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.5">
-      <c r="B31" s="40">
+      <c r="B31" s="38">
         <v>2</v>
       </c>
       <c r="C31"/>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="37" t="s">
         <v>126</v>
       </c>
       <c r="E31" s="18" t="s">
@@ -6204,30 +6465,52 @@
       <c r="H31" s="18"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B32" s="19"/>
-      <c r="C32"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.5">
+      <c r="B32" s="19">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B33" s="19"/>
-      <c r="C33"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+    <row r="33" spans="2:9" ht="60" x14ac:dyDescent="0.5">
+      <c r="B33" s="19">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B34" s="20"/>
-      <c r="C34"/>
-      <c r="D34" s="39"/>
+      <c r="C34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="37"/>
       <c r="E34" s="18"/>
       <c r="F34" s="22"/>
       <c r="G34" s="18"/>
@@ -6237,7 +6520,7 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B35" s="20"/>
       <c r="C35"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="18"/>
       <c r="F35" s="22"/>
       <c r="G35" s="18"/>
@@ -6247,7 +6530,7 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B36" s="20"/>
       <c r="C36"/>
-      <c r="D36" s="39"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="18"/>
       <c r="F36" s="22"/>
       <c r="G36" s="18"/>
@@ -6257,7 +6540,7 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B37" s="20"/>
       <c r="C37"/>
-      <c r="D37" s="39"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="18"/>
       <c r="F37" s="22"/>
       <c r="G37" s="18"/>
@@ -6267,7 +6550,7 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B38" s="20"/>
       <c r="C38"/>
-      <c r="D38" s="39"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="18"/>
       <c r="F38" s="22"/>
       <c r="G38" s="18"/>
@@ -6277,7 +6560,7 @@
     <row r="39" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B39" s="20"/>
       <c r="C39"/>
-      <c r="D39" s="39"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="18"/>
       <c r="F39" s="22"/>
       <c r="G39" s="18"/>
@@ -6287,7 +6570,7 @@
     <row r="40" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B40" s="20"/>
       <c r="C40"/>
-      <c r="D40" s="39"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="18"/>
       <c r="F40" s="22"/>
       <c r="G40" s="18"/>
@@ -6297,7 +6580,7 @@
     <row r="41" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B41" s="20"/>
       <c r="C41"/>
-      <c r="D41" s="39"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="18"/>
       <c r="F41" s="22"/>
       <c r="G41" s="18"/>
@@ -6307,7 +6590,7 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B42" s="20"/>
       <c r="C42"/>
-      <c r="D42" s="39"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="18"/>
       <c r="F42" s="22"/>
       <c r="G42" s="18"/>
@@ -6317,7 +6600,7 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B43" s="20"/>
       <c r="C43" s="34"/>
-      <c r="D43" s="39"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="18"/>
       <c r="F43" s="22"/>
       <c r="G43" s="18"/>
@@ -6327,7 +6610,7 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B44" s="20"/>
       <c r="C44"/>
-      <c r="D44" s="39"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="18"/>
       <c r="F44" s="22"/>
       <c r="G44" s="18"/>
@@ -6337,7 +6620,7 @@
     <row r="45" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B45" s="20"/>
       <c r="C45" s="34"/>
-      <c r="D45" s="39"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="18"/>
       <c r="F45" s="22"/>
       <c r="G45" s="18"/>
@@ -6347,7 +6630,7 @@
     <row r="46" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B46" s="20"/>
       <c r="C46" s="34"/>
-      <c r="D46" s="39"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="18"/>
       <c r="F46" s="22"/>
       <c r="G46" s="18"/>
@@ -6357,7 +6640,7 @@
     <row r="47" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B47" s="20"/>
       <c r="C47" s="34"/>
-      <c r="D47" s="39"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="18"/>
       <c r="F47" s="22"/>
       <c r="G47" s="18"/>
@@ -6367,7 +6650,7 @@
     <row r="48" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B48" s="20"/>
       <c r="C48" s="34"/>
-      <c r="D48" s="39"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="18"/>
       <c r="F48" s="22"/>
       <c r="G48" s="18"/>
@@ -6377,7 +6660,7 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B49" s="20"/>
       <c r="C49"/>
-      <c r="D49" s="39"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="18"/>
@@ -6387,7 +6670,7 @@
     <row r="50" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B50" s="20"/>
       <c r="C50"/>
-      <c r="D50" s="39"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="18"/>
       <c r="F50" s="22"/>
       <c r="G50" s="18"/>
@@ -6397,7 +6680,7 @@
     <row r="51" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B51" s="20"/>
       <c r="C51"/>
-      <c r="D51" s="39"/>
+      <c r="D51" s="37"/>
       <c r="E51" s="18"/>
       <c r="F51" s="22"/>
       <c r="G51" s="18"/>
@@ -6407,7 +6690,7 @@
     <row r="52" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B52" s="20"/>
       <c r="C52" s="34"/>
-      <c r="D52" s="39"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="18"/>
       <c r="F52" s="22"/>
       <c r="G52" s="18"/>
@@ -6417,7 +6700,7 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B53" s="20"/>
       <c r="C53"/>
-      <c r="D53" s="39"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="18"/>
       <c r="F53" s="22"/>
       <c r="G53" s="18"/>
@@ -6427,7 +6710,7 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B54" s="20"/>
       <c r="C54" s="34"/>
-      <c r="D54" s="39"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="18"/>
       <c r="F54" s="22"/>
       <c r="G54" s="18"/>
@@ -6437,7 +6720,7 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B55" s="20"/>
       <c r="C55" s="34"/>
-      <c r="D55" s="39"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="18"/>
       <c r="F55" s="22"/>
       <c r="G55" s="18"/>
@@ -6447,7 +6730,7 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B56" s="20"/>
       <c r="C56" s="34"/>
-      <c r="D56" s="39"/>
+      <c r="D56" s="37"/>
       <c r="E56" s="18"/>
       <c r="F56" s="22"/>
       <c r="G56" s="18"/>
@@ -6457,7 +6740,7 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B57" s="20"/>
       <c r="C57" s="34"/>
-      <c r="D57" s="39"/>
+      <c r="D57" s="37"/>
       <c r="E57" s="18"/>
       <c r="F57" s="22"/>
       <c r="G57" s="18"/>
@@ -6467,7 +6750,7 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B58" s="20"/>
       <c r="C58" s="34"/>
-      <c r="D58" s="39"/>
+      <c r="D58" s="37"/>
       <c r="E58" s="18"/>
       <c r="F58" s="22"/>
       <c r="G58" s="18"/>
@@ -6477,7 +6760,7 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B59" s="20"/>
       <c r="C59" s="34"/>
-      <c r="D59" s="39"/>
+      <c r="D59" s="37"/>
       <c r="E59" s="18"/>
       <c r="F59" s="22"/>
       <c r="G59" s="18"/>
@@ -6487,7 +6770,7 @@
     <row r="60" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B60" s="20"/>
       <c r="C60" s="34"/>
-      <c r="D60" s="39"/>
+      <c r="D60" s="37"/>
       <c r="E60" s="18"/>
       <c r="F60" s="22"/>
       <c r="G60" s="18"/>
@@ -6497,7 +6780,7 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B61" s="20"/>
       <c r="C61" s="34"/>
-      <c r="D61" s="39"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="18"/>
       <c r="F61" s="22"/>
       <c r="G61" s="18"/>
@@ -6507,7 +6790,7 @@
     <row r="62" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B62" s="20"/>
       <c r="C62" s="34"/>
-      <c r="D62" s="39"/>
+      <c r="D62" s="37"/>
       <c r="E62" s="18"/>
       <c r="F62" s="22"/>
       <c r="G62" s="18"/>
@@ -6517,7 +6800,7 @@
     <row r="63" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B63" s="20"/>
       <c r="C63" s="34"/>
-      <c r="D63" s="39"/>
+      <c r="D63" s="37"/>
       <c r="E63" s="18"/>
       <c r="F63" s="22"/>
       <c r="G63" s="18"/>
@@ -6527,7 +6810,7 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B64" s="29"/>
       <c r="C64" s="35"/>
-      <c r="D64" s="39"/>
+      <c r="D64" s="37"/>
       <c r="E64" s="18"/>
       <c r="F64" s="22"/>
       <c r="G64" s="18"/>
@@ -6537,7 +6820,7 @@
     <row r="65" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B65" s="29"/>
       <c r="C65" s="35"/>
-      <c r="D65" s="39"/>
+      <c r="D65" s="37"/>
       <c r="E65" s="18"/>
       <c r="F65" s="22"/>
       <c r="G65" s="18"/>
@@ -6547,7 +6830,7 @@
     <row r="66" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B66" s="29"/>
       <c r="C66" s="35"/>
-      <c r="D66" s="39"/>
+      <c r="D66" s="37"/>
       <c r="E66" s="18"/>
       <c r="F66" s="22"/>
       <c r="G66" s="18"/>
@@ -6557,7 +6840,7 @@
     <row r="67" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B67" s="29"/>
       <c r="C67" s="35"/>
-      <c r="D67" s="39"/>
+      <c r="D67" s="37"/>
       <c r="E67" s="18"/>
       <c r="F67" s="22"/>
       <c r="G67" s="18"/>
@@ -6567,7 +6850,7 @@
     <row r="68" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B68" s="29"/>
       <c r="C68" s="35"/>
-      <c r="D68" s="39"/>
+      <c r="D68" s="37"/>
       <c r="E68" s="18"/>
       <c r="F68" s="22"/>
       <c r="G68" s="18"/>
@@ -7320,7 +7603,7 @@
     <mergeCell ref="A9:A11"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
-  <conditionalFormatting sqref="C14 E14:I14 C20:C22 E20:I22 C9:I13 C15:I19 C23:I142">
+  <conditionalFormatting sqref="C9:I13 C14 E14:I14 C15:I19 C20:C22 E20:I22 C23:I142">
     <cfRule type="expression" dxfId="11" priority="9">
       <formula>$B9=3</formula>
     </cfRule>
@@ -7460,24 +7743,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7685,25 +7950,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{920DC3BD-3C4B-4C78-91FF-63EB10F70D2C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CCC4C8-6A95-4999-B963-115A022CA31F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7118F064-9046-4DCB-A010-2D274D0FB549}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7721,4 +7986,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{920DC3BD-3C4B-4C78-91FF-63EB10F70D2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CCC4C8-6A95-4999-B963-115A022CA31F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/测试文档/自测/逆流器显示板软件自测报告—V1.2.xlsx
+++ b/测试文档/自测/逆流器显示板软件自测报告—V1.2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B93612-93CD-477C-B31C-5BFECB4859F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F3E880-731B-489F-A4AB-EE17E911537B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,8 @@
     <sheet name="表① 更改点验证" sheetId="7" r:id="rId1"/>
     <sheet name="表② 新功能测试" sheetId="21" r:id="rId2"/>
     <sheet name="表③ 设置截图" sheetId="22" r:id="rId3"/>
+    <sheet name="表④ 调试工具截图" sheetId="23" r:id="rId4"/>
+    <sheet name="训练计划统计" sheetId="24" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表① 更改点验证'!$1:$8</definedName>
@@ -33,7 +35,6 @@
     <definedName name="责任人">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="221">
   <si>
     <t xml:space="preserve">                            </t>
   </si>
@@ -809,7 +810,305 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>屏蔽控制方式</t>
+    <t>调试界面</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机蓝牙：</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rs485 Modbus控制
+使用串口助手调试</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制功能</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接485接口，波特率9600；
+通过调试软件发送指令读取 故障，参数，属性等寄存器 ；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接485接口，波特率9600；
+通过调试软件发送指令写入 速度，时间，状态，模式等寄存器；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据写入值实时变更；
+稳定运行；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义几条命令，通过调试助手自动发送持续通讯；
+间隔100ms；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常响应功能，通信稳定，系统稳定</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>100ms会有部分命令没回复，不影响正常功能；可接受</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常读取状态和属性值；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>3种控制方式同时</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接485接口，波特率9600；
+通过调试助手自动发送控制指令，间隔200ms；
+手机蓝牙调试app连接设备蓝牙；
+通过app自动发送控制指令，间隔200ms；
+wifi配网完成，通过后台网站发送控制指令；
+平台没有自动发送，手动控制连续控制；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统稳定运行，没有卡顿、死机或者重启的现象；
+可以接受有部分指令没响应，主要做压力测试；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信压力测试</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制屏蔽功能</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽蓝牙</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入设置菜单，3号菜单下的屏蔽参数设为1；
+连接485接口，波特率9600；
+手机蓝牙调试app连接设备蓝牙；
+wifi配网完成，通过后台网站发送控制指令；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复第37项操作；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机蓝牙无法控制，其余控制方式正常；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机蓝牙无法控制；
+其余控制方式正常，系统正常响应；
+系统稳定运行，没有卡顿、死机或者重启的现象；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽485</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入设置菜单，3号菜单下的屏蔽参数设为2；
+连接485接口，波特率9600；
+手机蓝牙调试app连接设备蓝牙；
+wifi配网完成，通过后台网站发送控制指令；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>485通讯无法控制，其余控制方式正常；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>485通讯无法控制；
+其余控制方式正常，系统正常响应；
+系统稳定运行，没有卡顿、死机或者重启的现象；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入设置菜单，3号菜单下的屏蔽参数设为4；
+连接485接口，波特率9600；
+手机蓝牙调试app连接设备蓝牙；
+wifi配网完成，通过后台网站发送控制指令；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台网站无法控制（wifi），其余控制方式正常；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台网站无法控制（wifi）；
+其余控制方式正常，系统正常响应；
+系统稳定运行，没有卡顿、死机或者重启的现象；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部屏蔽</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入设置菜单，3号菜单下的屏蔽参数设为7；
+连接485接口，波特率9600；
+手机蓝牙调试app连接设备蓝牙；
+wifi配网完成，通过后台网站发送控制指令；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>3种控制方式均无法控制；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>3种控制方式均无法控制；
+系统稳定运行，没有卡顿、死机或者重启的现象；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽恢复</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入设置菜单，3号菜单下的屏蔽参数设为0；
+重复第37项操作；</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1:</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2:</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3:</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4:</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时:</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%  --- 15min</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%  --- 30min</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%  --- 30min</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%  --- 15min</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间,速度 任意切换</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成配网,确保平台能正常通信;
+开机运行定时模式,P1-P4计划(完整跑完);
+查看平台统计数据;</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台正常显示统计数据;
+细分测试情况查看表⑤训练计划统计;</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合预期</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整运行结束后上传数据</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行一半暂停,再恢复;
+直至完整跑完整个模式</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停不影响统计时间,强度;
+距离会有些许变化;</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复47项操作内容;
+在运行过程中任意时间暂停,过一段时间后恢复;</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行过程中切换模式;(大于3分钟)</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复47项操作内容;
+在运行过程中任意时间切换至任意模式;</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据统计至切换的时间;
+切换后重新开始统计;</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行过程中更改速度</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复47项操作内容;
+在运行过程中任意时间切换速度;</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换速度不影响统计时间,;
+距离会有些许变化;
+强度以最后结束时的速度为准</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时模式,运行过程中更改时间</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机进入定时模式;
+运行过程中任意时间切换时间;</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计时间为两次时间总和(即总运行时间);
+统计强度为最后结束前的速度;
+距离根据实际情况计算,会有一些误差为可接受结果;</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练统计数据上传
+P1-P4,定时模式,</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合预期
+升级过程:
+传输:  1:16s左右
+升级:   5-6s
+总时长:  1:21s</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
@@ -3601,6 +3900,506 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>186363</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>103042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F27309-38FE-5E77-2398-12E512F26F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="242887"/>
+          <a:ext cx="12816513" cy="7480155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7076</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15149826-253B-A91D-6DD7-D1D19EB2069A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76201" y="8601074"/>
+          <a:ext cx="4598125" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358568</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DBBCBF-A07A-454F-CB2B-B9594BC9C1BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61913" y="5357812"/>
+          <a:ext cx="5363955" cy="1604963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52E0A1F-14C0-C86C-3C2A-949EED5F419E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="3109255"/>
+          <a:ext cx="5362575" cy="1681441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCD7C64-1114-E2EA-BB37-B376581F5E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="464494"/>
+          <a:ext cx="5429250" cy="1830612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>353153</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D4B5CF-4144-0DFA-807B-CE280610D1C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="7429500"/>
+          <a:ext cx="5372828" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>313745</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>147457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2339B1F2-7A9C-BCC0-27F6-8D8F68AC5365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="414338"/>
+          <a:ext cx="4638095" cy="1447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>237555</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34470272-3D82-C909-43BA-B64CEC7EB8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="2500312"/>
+          <a:ext cx="4561905" cy="1447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>719138</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>356600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>118883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13AAC90-C924-3C9A-990F-8B5171BE1C1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7958138" y="4595812"/>
+          <a:ext cx="4704762" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>299458</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>80789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4708E50B-25B3-D0CE-6AEB-EB6AD80196A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7977187" y="6691313"/>
+          <a:ext cx="4628571" cy="1390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>442315</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>137932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E16584F-015C-142B-DE0B-9B6DFCC9239E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7967663" y="8596313"/>
+          <a:ext cx="4780952" cy="1447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="待办事项列表" displayName="待办事项列表" ref="B8:J139" headerRowDxfId="55" dataDxfId="54" totalsRowDxfId="53">
   <autoFilter ref="B8:J139" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
@@ -3879,8 +4678,8 @@
   </sheetPr>
   <dimension ref="A1:XFB144"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -3984,7 +4783,7 @@
       </c>
       <c r="C5" s="51">
         <f>COUNTIFS(待办事项列表[结果],"=2")</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
@@ -4503,9 +5302,7 @@
       <c r="J28" s="58"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B29" s="60">
-        <v>2</v>
-      </c>
+      <c r="B29" s="60"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29" s="23"/>
@@ -4516,9 +5313,7 @@
       <c r="J29" s="58"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B30" s="60">
-        <v>2</v>
-      </c>
+      <c r="B30" s="60"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30" s="23"/>
@@ -4529,9 +5324,7 @@
       <c r="J30" s="58"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B31" s="60">
-        <v>2</v>
-      </c>
+      <c r="B31" s="60"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31" s="37"/>
@@ -5827,8 +6620,8 @@
   </sheetPr>
   <dimension ref="A1:XFB147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -5916,7 +6709,7 @@
       </c>
       <c r="C4" s="31">
         <f>COUNTIFS(待办事项列表2[结果],"=1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -5930,7 +6723,7 @@
       </c>
       <c r="C5" s="31">
         <f>COUNTIFS(待办事项列表2[结果],"=2")</f>
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -6198,7 +6991,7 @@
         <v>87</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="14"/>
@@ -6369,7 +7162,7 @@
     </row>
     <row r="27" spans="2:9" ht="60" x14ac:dyDescent="0.5">
       <c r="B27" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="22" t="s">
@@ -6481,7 +7274,9 @@
       <c r="F32" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H32" s="18"/>
       <c r="I32" s="14"/>
     </row>
@@ -6501,189 +7296,377 @@
       <c r="F33" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H33" s="18"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B34" s="20"/>
+    <row r="34" spans="2:9" ht="45" x14ac:dyDescent="0.5">
+      <c r="B34" s="19">
+        <v>2</v>
+      </c>
       <c r="C34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="18"/>
+        <v>161</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H34" s="22"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B35" s="20"/>
+    <row r="35" spans="2:9" ht="45" x14ac:dyDescent="0.5">
+      <c r="B35" s="19">
+        <v>2</v>
+      </c>
       <c r="C35"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="18"/>
+      <c r="D35" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H35" s="22"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B36" s="20"/>
+    <row r="36" spans="2:9" ht="45" x14ac:dyDescent="0.5">
+      <c r="B36" s="19">
+        <v>2</v>
+      </c>
       <c r="C36"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="18"/>
+      <c r="D36" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>168</v>
+      </c>
       <c r="H36" s="22"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B37" s="20"/>
-      <c r="C37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="18"/>
+    <row r="37" spans="2:9" ht="90" x14ac:dyDescent="0.5">
+      <c r="B37" s="19">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H37" s="22"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B38" s="20"/>
-      <c r="C38"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="18"/>
+    <row r="38" spans="2:9" ht="60" x14ac:dyDescent="0.5">
+      <c r="B38" s="19">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H38" s="22"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B39" s="20"/>
+    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.5">
+      <c r="B39" s="19">
+        <v>2</v>
+      </c>
       <c r="C39"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="18"/>
+      <c r="D39" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H39" s="22"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B40" s="20"/>
+    <row r="40" spans="2:9" ht="60" x14ac:dyDescent="0.5">
+      <c r="B40" s="19">
+        <v>2</v>
+      </c>
       <c r="C40"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="18"/>
+      <c r="D40" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H40" s="22"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B41" s="20"/>
+    <row r="41" spans="2:9" ht="45" x14ac:dyDescent="0.5">
+      <c r="B41" s="19">
+        <v>2</v>
+      </c>
       <c r="C41"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="18"/>
+      <c r="D41" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H41" s="22"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B42" s="20"/>
+    <row r="42" spans="2:9" ht="60" x14ac:dyDescent="0.5">
+      <c r="B42" s="19">
+        <v>2</v>
+      </c>
       <c r="C42"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="18"/>
+      <c r="D42" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H42" s="22"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B43" s="20"/>
+    <row r="43" spans="2:9" ht="45" x14ac:dyDescent="0.5">
+      <c r="B43" s="19">
+        <v>2</v>
+      </c>
       <c r="C43" s="34"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="18"/>
+      <c r="D43" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H43" s="22"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B44" s="20"/>
+    <row r="44" spans="2:9" ht="60" x14ac:dyDescent="0.5">
+      <c r="B44" s="19">
+        <v>2</v>
+      </c>
       <c r="C44"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="18"/>
+      <c r="D44" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H44" s="22"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B45" s="20"/>
+    <row r="45" spans="2:9" ht="30" x14ac:dyDescent="0.5">
+      <c r="B45" s="19">
+        <v>2</v>
+      </c>
       <c r="C45" s="34"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="18"/>
+      <c r="D45" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H45" s="22"/>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B46" s="20"/>
-      <c r="C46" s="34"/>
+    <row r="46" spans="2:9" ht="30" x14ac:dyDescent="0.5">
+      <c r="B46" s="20">
+        <v>2</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>191</v>
+      </c>
       <c r="D46" s="37"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="18"/>
+      <c r="E46" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="H46" s="22"/>
       <c r="I46" s="14"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B47" s="20"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="18"/>
+    <row r="47" spans="2:9" ht="45" x14ac:dyDescent="0.5">
+      <c r="B47" s="20">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="H47" s="22"/>
       <c r="I47" s="14"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B48" s="20"/>
+    <row r="48" spans="2:9" ht="30" x14ac:dyDescent="0.5">
+      <c r="B48" s="20">
+        <v>2</v>
+      </c>
       <c r="C48" s="34"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="18"/>
+      <c r="D48" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="H48" s="22"/>
       <c r="I48" s="14"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B49" s="20"/>
+    <row r="49" spans="2:9" ht="30" x14ac:dyDescent="0.5">
+      <c r="B49" s="20">
+        <v>2</v>
+      </c>
       <c r="C49"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="18"/>
+      <c r="D49" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="H49" s="22"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B50" s="20"/>
+    <row r="50" spans="2:9" ht="45" x14ac:dyDescent="0.5">
+      <c r="B50" s="20">
+        <v>2</v>
+      </c>
       <c r="C50"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="18"/>
+      <c r="D50" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="H50" s="22"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B51" s="20"/>
+    <row r="51" spans="2:9" ht="45" x14ac:dyDescent="0.5">
+      <c r="B51" s="20">
+        <v>2</v>
+      </c>
       <c r="C51"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="18"/>
+      <c r="D51" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="H51" s="22"/>
       <c r="I51" s="14"/>
     </row>
@@ -7719,7 +8702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F2E150-B649-41AC-936B-910A013F5F35}">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
@@ -7742,7 +8725,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EEFB1B-161D-4A7F-A2B9-252DF715F6ED}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12.9375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="33" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD99F8E-7AA6-4EDA-BEE2-9638404596B7}">
+  <dimension ref="A2:M45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R56" sqref="R56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="13" max="13" width="17.87890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="M13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="M24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="M35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="M45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="33" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7950,15 +9041,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7969,6 +9051,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{920DC3BD-3C4B-4C78-91FF-63EB10F70D2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7118F064-9046-4DCB-A010-2D274D0FB549}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7988,14 +9078,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{920DC3BD-3C4B-4C78-91FF-63EB10F70D2C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CCC4C8-6A95-4999-B963-115A022CA31F}">
   <ds:schemaRefs>
